--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE119870-699E-4CD7-AA08-F505511540E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED82A61-FAD1-442A-8090-216035BA7410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20955" yWindow="1860" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Player</t>
   </si>
@@ -118,6 +128,21 @@
   </si>
   <si>
     <t>Week 22</t>
+  </si>
+  <si>
+    <t>Week 23</t>
+  </si>
+  <si>
+    <t>Week 24</t>
+  </si>
+  <si>
+    <t>Week 25</t>
+  </si>
+  <si>
+    <t>Week 26</t>
+  </si>
+  <si>
+    <t>Week 27</t>
   </si>
 </sst>
 </file>
@@ -147,9 +172,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -159,8 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,20 +476,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="9.140625" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +508,7 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
@@ -515,7 +553,7 @@
       <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="V1" t="s">
@@ -524,8 +562,23 @@
       <c r="W1" t="s">
         <v>30</v>
       </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -541,189 +594,333 @@
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>3.5</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
       <c r="I2">
         <v>10</v>
       </c>
-      <c r="J2">
-        <v>3.5</v>
-      </c>
       <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>3.5</v>
+      </c>
+      <c r="O2">
         <v>1.5</v>
       </c>
-      <c r="L2">
-        <v>3.5</v>
-      </c>
-      <c r="M2">
-        <v>3.5</v>
-      </c>
-      <c r="N2">
-        <v>3.5</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2">
+      <c r="Q2">
+        <v>3.5</v>
+      </c>
+      <c r="R2">
+        <v>3.5</v>
+      </c>
+      <c r="S2">
+        <v>3.5</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2" s="1">
         <v>3.33</v>
       </c>
-      <c r="R2">
-        <v>3.5</v>
-      </c>
-      <c r="S2">
+      <c r="W2">
+        <v>3.5</v>
+      </c>
+      <c r="X2">
         <v>2</v>
       </c>
-      <c r="T2">
-        <v>3.5</v>
-      </c>
-      <c r="U2">
-        <v>3.5</v>
-      </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>3.5</v>
+      </c>
+      <c r="Z2">
+        <v>3.5</v>
+      </c>
+      <c r="AB2">
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
+      <c r="H3">
+        <v>2.5</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>2.5</v>
+      </c>
+      <c r="M3">
+        <v>2.5</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>2.5</v>
+      </c>
       <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="W3">
         <v>2.5</v>
       </c>
-      <c r="T3">
+      <c r="Y3">
         <v>1.5</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>2.5</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>2.5</v>
       </c>
-      <c r="W3">
+      <c r="AB3">
         <v>4.67</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="P4">
+      <c r="U4" s="1">
         <v>6.5</v>
       </c>
-      <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="S4">
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="X4">
         <v>4</v>
       </c>
-      <c r="T4">
+      <c r="Y4">
         <v>4</v>
       </c>
-      <c r="U4">
-        <v>10</v>
-      </c>
-      <c r="V4">
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
       <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>4.5</v>
+      </c>
+      <c r="U5" s="1">
         <v>2</v>
       </c>
-      <c r="T5">
-        <v>7</v>
-      </c>
-      <c r="U5">
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5">
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>5.5</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
       <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6" s="1">
         <v>9</v>
       </c>
-      <c r="Q6">
-        <v>7</v>
-      </c>
-      <c r="R6">
-        <v>7</v>
-      </c>
-      <c r="S6">
-        <v>7</v>
-      </c>
       <c r="V6">
         <v>7</v>
       </c>
       <c r="W6">
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <v>7</v>
+      </c>
+      <c r="AA6">
+        <v>7</v>
+      </c>
+      <c r="AB6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
+      <c r="H7">
+        <v>5.5</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
       <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="V7">
         <v>6.5</v>
       </c>
-      <c r="R7">
-        <v>7</v>
-      </c>
-      <c r="T7">
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
         <v>4.5</v>
       </c>
-      <c r="W7">
+      <c r="AB7">
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>3.5</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>3.5</v>
+      </c>
+      <c r="M8">
+        <v>2.75</v>
+      </c>
+      <c r="N8">
+        <v>3.33</v>
+      </c>
+      <c r="P8">
+        <v>3.5</v>
+      </c>
       <c r="Q8">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="R8">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="S8">
+        <v>3.5</v>
+      </c>
+      <c r="T8">
         <v>2</v>
       </c>
       <c r="V8">
+        <v>3.5</v>
+      </c>
+      <c r="W8">
+        <v>3.5</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
         <v>3.67</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="P9">
+      <c r="U9" s="1">
         <v>1.5</v>
-      </c>
-      <c r="Q9">
-        <v>1.5</v>
-      </c>
-      <c r="S9">
-        <v>1.5</v>
-      </c>
-      <c r="U9">
-        <v>10</v>
       </c>
       <c r="V9">
         <v>1.5</v>
       </c>
-      <c r="W9">
+      <c r="X9">
+        <v>1.5</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9">
+        <v>1.5</v>
+      </c>
+      <c r="AB9">
         <v>1.5</v>
       </c>
     </row>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED82A61-FAD1-442A-8090-216035BA7410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12D2118-E3BD-44B1-8796-907313D9877D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20955" yWindow="1860" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19140" yWindow="0" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Player</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Week 27</t>
+  </si>
+  <si>
+    <t>Week 28</t>
   </si>
 </sst>
 </file>
@@ -476,11 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L15" sqref="L15"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +495,7 @@
     <col min="21" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,8 +580,11 @@
       <c r="AB1" t="s">
         <v>35</v>
       </c>
+      <c r="AC1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -643,7 +649,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -684,7 +690,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -706,8 +712,11 @@
       <c r="AA4">
         <v>7</v>
       </c>
+      <c r="AC4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -751,7 +760,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -803,8 +812,11 @@
       <c r="AB6">
         <v>10</v>
       </c>
+      <c r="AC6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -850,8 +862,11 @@
       <c r="AB7">
         <v>6.5</v>
       </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -900,8 +915,11 @@
       <c r="AA8">
         <v>3.67</v>
       </c>
+      <c r="AC8">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -921,6 +939,9 @@
         <v>1.5</v>
       </c>
       <c r="AB9">
+        <v>1.5</v>
+      </c>
+      <c r="AC9">
         <v>1.5</v>
       </c>
     </row>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12D2118-E3BD-44B1-8796-907313D9877D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD50F11-277A-4D6F-9E8A-855EA24024C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19140" yWindow="0" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="2625" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Player</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Week 28</t>
+  </si>
+  <si>
+    <t>Week 29</t>
   </si>
 </sst>
 </file>
@@ -479,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
+      <selection pane="topRight" activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +498,7 @@
     <col min="21" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +586,11 @@
       <c r="AC1" t="s">
         <v>36</v>
       </c>
+      <c r="AD1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -648,8 +654,11 @@
       <c r="AB2">
         <v>3.5</v>
       </c>
+      <c r="AD2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -690,7 +699,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -715,8 +724,11 @@
       <c r="AC4">
         <v>7</v>
       </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -760,7 +772,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -815,8 +827,11 @@
       <c r="AC6">
         <v>7</v>
       </c>
+      <c r="AD6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -866,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -918,8 +933,11 @@
       <c r="AC8">
         <v>3.5</v>
       </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -943,6 +961,9 @@
       </c>
       <c r="AC9">
         <v>1.5</v>
+      </c>
+      <c r="AD9">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD50F11-277A-4D6F-9E8A-855EA24024C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D7181D-A4A8-4713-9667-8A7898FB6FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="2625" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="3390" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Player</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Week 29</t>
+  </si>
+  <si>
+    <t>Week 30</t>
   </si>
 </sst>
 </file>
@@ -482,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE6" sqref="AE6"/>
+      <selection pane="topRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +501,7 @@
     <col min="21" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,8 +592,11 @@
       <c r="AD1" t="s">
         <v>37</v>
       </c>
+      <c r="AE1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -657,8 +663,11 @@
       <c r="AD2">
         <v>4</v>
       </c>
+      <c r="AE2">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -698,8 +707,11 @@
       <c r="AB3">
         <v>4.67</v>
       </c>
+      <c r="AE3">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -727,8 +739,11 @@
       <c r="AD4">
         <v>0</v>
       </c>
+      <c r="AE4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -771,8 +786,11 @@
       <c r="Z5">
         <v>5.5</v>
       </c>
+      <c r="AE5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -831,7 +849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -881,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -937,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -964,6 +982,9 @@
       </c>
       <c r="AD9">
         <v>2.5</v>
+      </c>
+      <c r="AE9">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D7181D-A4A8-4713-9667-8A7898FB6FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5EF81E-7F2A-4D71-BE13-12C1682E3953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="3390" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Player</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Week 30</t>
+  </si>
+  <si>
+    <t>Week 31</t>
   </si>
 </sst>
 </file>
@@ -485,11 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z14" sqref="Z14"/>
+      <selection pane="topRight" activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +504,7 @@
     <col min="21" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,8 +598,11 @@
       <c r="AE1" t="s">
         <v>38</v>
       </c>
+      <c r="AF1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -667,7 +673,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -710,8 +716,11 @@
       <c r="AE3">
         <v>2.5</v>
       </c>
+      <c r="AF3">
+        <v>2.75</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -743,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -789,8 +798,11 @@
       <c r="AE5">
         <v>10</v>
       </c>
+      <c r="AF5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -848,8 +860,11 @@
       <c r="AD6">
         <v>10</v>
       </c>
+      <c r="AF6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -898,8 +913,11 @@
       <c r="AC7">
         <v>5</v>
       </c>
+      <c r="AF7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -954,8 +972,11 @@
       <c r="AD8">
         <v>0</v>
       </c>
+      <c r="AF8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5EF81E-7F2A-4D71-BE13-12C1682E3953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD561FAA-E81A-4432-A3EE-68B2E4721BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="3390" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="705" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Player</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Week 31</t>
+  </si>
+  <si>
+    <t>Week 32</t>
   </si>
 </sst>
 </file>
@@ -488,11 +491,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE14" sqref="AE14"/>
+      <selection pane="topRight" activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +507,7 @@
     <col min="21" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,8 +604,11 @@
       <c r="AF1" t="s">
         <v>39</v>
       </c>
+      <c r="AG1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -672,8 +678,11 @@
       <c r="AE2">
         <v>3.5</v>
       </c>
+      <c r="AG2">
+        <v>1.75</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -720,7 +729,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -751,8 +760,11 @@
       <c r="AE4">
         <v>7</v>
       </c>
+      <c r="AG4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -801,8 +813,11 @@
       <c r="AF5">
         <v>7</v>
       </c>
+      <c r="AG5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -863,8 +878,11 @@
       <c r="AF6">
         <v>7</v>
       </c>
+      <c r="AG6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -917,7 +935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -976,7 +994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1006,6 +1024,9 @@
       </c>
       <c r="AE9">
         <v>1.5</v>
+      </c>
+      <c r="AG9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD561FAA-E81A-4432-A3EE-68B2E4721BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA91268C-B344-436B-A6CF-9C3F6F5E502A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4065" yWindow="705" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
@@ -811,10 +811,10 @@
         <v>10</v>
       </c>
       <c r="AF5">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AG5">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="AF7">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA91268C-B344-436B-A6CF-9C3F6F5E502A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA44764-2E71-41E4-BA10-500795AA8DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4065" yWindow="705" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,8 +494,8 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG11" sqref="AG11"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA44764-2E71-41E4-BA10-500795AA8DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5886945-CFE2-4842-B511-1BE917C76651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="705" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20610" yWindow="1995" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Player</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Week 32</t>
+  </si>
+  <si>
+    <t>Week 33</t>
   </si>
 </sst>
 </file>
@@ -491,11 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +510,7 @@
     <col min="21" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +610,11 @@
       <c r="AG1" t="s">
         <v>40</v>
       </c>
+      <c r="AH1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -682,7 +688,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -728,8 +734,11 @@
       <c r="AF3">
         <v>2.75</v>
       </c>
+      <c r="AH3">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -764,7 +773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -817,7 +826,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -881,8 +890,11 @@
       <c r="AG6">
         <v>5</v>
       </c>
+      <c r="AH6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -934,8 +946,11 @@
       <c r="AF7">
         <v>5.5</v>
       </c>
+      <c r="AH7">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -993,8 +1008,11 @@
       <c r="AF8">
         <v>2</v>
       </c>
+      <c r="AH8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1027,6 +1045,9 @@
       </c>
       <c r="AG9">
         <v>10</v>
+      </c>
+      <c r="AH9">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5886945-CFE2-4842-B511-1BE917C76651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B87F4A-B27F-4186-9ED7-B9B0CC464D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20610" yWindow="1995" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20865" yWindow="1425" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Player</t>
   </si>
@@ -161,6 +161,24 @@
   </si>
   <si>
     <t>Week 33</t>
+  </si>
+  <si>
+    <t>Week 34</t>
+  </si>
+  <si>
+    <t>Week 35</t>
+  </si>
+  <si>
+    <t>Week 36</t>
+  </si>
+  <si>
+    <t>Week 37</t>
+  </si>
+  <si>
+    <t>Week 38</t>
+  </si>
+  <si>
+    <t>Daniel Burcham</t>
   </si>
 </sst>
 </file>
@@ -190,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -207,13 +225,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE11" sqref="AE11"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,9 +537,10 @@
     <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
     <col min="7" max="20" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,8 +643,23 @@
       <c r="AH1" t="s">
         <v>41</v>
       </c>
+      <c r="AI1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -687,8 +732,17 @@
       <c r="AG2">
         <v>1.75</v>
       </c>
+      <c r="AI2">
+        <v>2.5</v>
+      </c>
+      <c r="AK2">
+        <v>3.5</v>
+      </c>
+      <c r="AM2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -738,7 +792,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -772,8 +826,11 @@
       <c r="AG4">
         <v>4</v>
       </c>
+      <c r="AL4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -825,8 +882,17 @@
       <c r="AG5">
         <v>5.5</v>
       </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK5">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -893,8 +959,20 @@
       <c r="AH6">
         <v>10</v>
       </c>
+      <c r="AJ6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK6">
+        <v>6</v>
+      </c>
+      <c r="AL6">
+        <v>10</v>
+      </c>
+      <c r="AM6">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -949,8 +1027,17 @@
       <c r="AH7">
         <v>9</v>
       </c>
+      <c r="AI7">
+        <v>5.5</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="AM7">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1011,8 +1098,17 @@
       <c r="AH8">
         <v>5</v>
       </c>
+      <c r="AJ8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL8">
+        <v>3.5</v>
+      </c>
+      <c r="AM8">
+        <v>1.67</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1048,6 +1144,56 @@
       </c>
       <c r="AH9">
         <v>1.5</v>
+      </c>
+      <c r="AI9">
+        <v>1.5</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>5.5</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="AK10">
+        <v>6.5</v>
+      </c>
+      <c r="AL10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B87F4A-B27F-4186-9ED7-B9B0CC464D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8FA938-D73D-4317-A6A2-0B1CC77D74CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20865" yWindow="1425" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Player</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Daniel Burcham</t>
+  </si>
+  <si>
+    <t>Week 39</t>
   </si>
 </sst>
 </file>
@@ -238,11 +241,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,11 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R12" sqref="R12"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +542,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,8 +660,11 @@
       <c r="AM1" t="s">
         <v>46</v>
       </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -741,8 +746,11 @@
       <c r="AM2">
         <v>2</v>
       </c>
+      <c r="AN2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -792,7 +800,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -829,8 +837,11 @@
       <c r="AL4">
         <v>10</v>
       </c>
+      <c r="AN4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -892,7 +903,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -971,8 +982,11 @@
       <c r="AM6">
         <v>5.5</v>
       </c>
+      <c r="AN6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1030,14 +1044,14 @@
       <c r="AI7">
         <v>5.5</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AK7">
         <v>5.5</v>
       </c>
       <c r="AM7">
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1107,8 +1121,11 @@
       <c r="AM8">
         <v>1.67</v>
       </c>
+      <c r="AN8">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1157,8 +1174,11 @@
       <c r="AM9">
         <v>4</v>
       </c>
+      <c r="AN9">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8FA938-D73D-4317-A6A2-0B1CC77D74CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB020946-0370-47A6-9217-C15903D5DF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20865" yWindow="1425" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Player</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Week 39</t>
+  </si>
+  <si>
+    <t>Week 40</t>
+  </si>
+  <si>
+    <t>Week 41</t>
   </si>
 </sst>
 </file>
@@ -525,11 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL6" sqref="AL6"/>
+      <selection pane="topRight" activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +548,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +669,14 @@
       <c r="AN1" t="s">
         <v>48</v>
       </c>
+      <c r="AO1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -749,8 +761,11 @@
       <c r="AN2">
         <v>2</v>
       </c>
+      <c r="AO2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -800,7 +815,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -840,8 +855,14 @@
       <c r="AN4">
         <v>7</v>
       </c>
+      <c r="AO4">
+        <v>4</v>
+      </c>
+      <c r="AP4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -902,8 +923,11 @@
       <c r="AK5">
         <v>5.5</v>
       </c>
+      <c r="AP5">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -986,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1050,8 +1074,11 @@
       <c r="AM7">
         <v>5.5</v>
       </c>
+      <c r="AO7">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1124,8 +1151,11 @@
       <c r="AN8">
         <v>3.5</v>
       </c>
+      <c r="AP8">
+        <v>2.75</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1177,8 +1207,14 @@
       <c r="AN9">
         <v>1.5</v>
       </c>
+      <c r="AO9">
+        <v>1.5</v>
+      </c>
+      <c r="AP9">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1214,6 +1250,12 @@
       </c>
       <c r="AL10">
         <v>6</v>
+      </c>
+      <c r="AO10">
+        <v>6</v>
+      </c>
+      <c r="AP10">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB020946-0370-47A6-9217-C15903D5DF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDE22B1-DE03-424B-AB1B-8A5CD7DB4130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="-30" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Player</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Week 41</t>
+  </si>
+  <si>
+    <t>Week 42</t>
   </si>
 </sst>
 </file>
@@ -531,11 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP9" sqref="AP9"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +551,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,8 +678,11 @@
       <c r="AP1" t="s">
         <v>50</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -764,8 +770,11 @@
       <c r="AO2">
         <v>10</v>
       </c>
+      <c r="AQ2">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -815,7 +824,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -861,8 +870,11 @@
       <c r="AP4">
         <v>5</v>
       </c>
+      <c r="AQ4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -927,7 +939,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1009,8 +1021,11 @@
       <c r="AN6">
         <v>10</v>
       </c>
+      <c r="AQ6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1077,8 +1092,11 @@
       <c r="AO7">
         <v>5.5</v>
       </c>
+      <c r="AQ7">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1173,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1213,8 +1231,11 @@
       <c r="AP9">
         <v>1.5</v>
       </c>
+      <c r="AQ9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDE22B1-DE03-424B-AB1B-8A5CD7DB4130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02391456-7A9B-4ECB-83C6-5EF61C88B367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="-30" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="2160" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Player</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Week 42</t>
+  </si>
+  <si>
+    <t>Week 43</t>
   </si>
 </sst>
 </file>
@@ -534,11 +537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN13" sqref="AN13"/>
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR10" sqref="AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +554,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,8 +684,11 @@
       <c r="AQ1" t="s">
         <v>51</v>
       </c>
+      <c r="AR1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -774,7 +780,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -824,7 +830,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -874,7 +880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -938,8 +944,11 @@
       <c r="AP5">
         <v>5.5</v>
       </c>
+      <c r="AR5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1025,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1095,8 +1104,11 @@
       <c r="AQ7">
         <v>3.5</v>
       </c>
+      <c r="AR7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1172,8 +1184,11 @@
       <c r="AP8">
         <v>2.75</v>
       </c>
+      <c r="AR8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1234,8 +1249,11 @@
       <c r="AQ9">
         <v>10</v>
       </c>
+      <c r="AR9">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02391456-7A9B-4ECB-83C6-5EF61C88B367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3838BF9-0DCC-451C-AD36-1D23F64462BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="2160" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Player</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Week 43</t>
+  </si>
+  <si>
+    <t>Week 44</t>
   </si>
 </sst>
 </file>
@@ -537,11 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AS10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR10" sqref="AR10"/>
+      <selection pane="topRight" activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +557,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +690,11 @@
       <c r="AR1" t="s">
         <v>52</v>
       </c>
+      <c r="AS1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -779,8 +785,11 @@
       <c r="AQ2">
         <v>3.5</v>
       </c>
+      <c r="AS2">
+        <v>2.67</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -830,7 +839,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -879,8 +888,11 @@
       <c r="AQ4">
         <v>10</v>
       </c>
+      <c r="AS4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -947,8 +959,11 @@
       <c r="AR5">
         <v>10</v>
       </c>
+      <c r="AS5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1033,8 +1048,11 @@
       <c r="AQ6">
         <v>5</v>
       </c>
+      <c r="AS6">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +1126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1188,7 +1206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1253,7 +1271,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1295,6 +1313,9 @@
       </c>
       <c r="AP10">
         <v>4.5</v>
+      </c>
+      <c r="AS10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3838BF9-0DCC-451C-AD36-1D23F64462BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DC8F38-A89B-4D5B-8AAC-7181D1A9C75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Player</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Week 44</t>
+  </si>
+  <si>
+    <t>Week 45</t>
   </si>
 </sst>
 </file>
@@ -540,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ12" sqref="AQ12"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +560,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="AS1" t="s">
         <v>53</v>
       </c>
+      <c r="AT1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -788,8 +794,11 @@
       <c r="AS2">
         <v>2.67</v>
       </c>
+      <c r="AT2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -839,7 +848,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -892,7 +901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -963,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1051,8 +1060,11 @@
       <c r="AS6">
         <v>5.5</v>
       </c>
+      <c r="AT6">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1125,8 +1137,11 @@
       <c r="AR7">
         <v>2</v>
       </c>
+      <c r="AT7">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1270,8 +1285,11 @@
       <c r="AR9">
         <v>1.5</v>
       </c>
+      <c r="AT9">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1316,6 +1334,9 @@
       </c>
       <c r="AS10">
         <v>10</v>
+      </c>
+      <c r="AT10">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DC8F38-A89B-4D5B-8AAC-7181D1A9C75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ABD935-5CC7-44DC-AB6C-4801639D0816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Player</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Week 45</t>
+  </si>
+  <si>
+    <t>Week 46</t>
   </si>
 </sst>
 </file>
@@ -543,11 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS10" sqref="AS10"/>
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP10" sqref="AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +563,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,8 +702,11 @@
       <c r="AT1" t="s">
         <v>54</v>
       </c>
+      <c r="AU1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -798,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -848,7 +854,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -901,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -972,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1063,8 +1069,11 @@
       <c r="AT6">
         <v>5.5</v>
       </c>
+      <c r="AU6">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1140,8 +1149,11 @@
       <c r="AT7">
         <v>5.5</v>
       </c>
+      <c r="AU7">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1220,8 +1232,11 @@
       <c r="AR8">
         <v>3</v>
       </c>
+      <c r="AU8">
+        <v>4.25</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1288,8 +1303,11 @@
       <c r="AT9">
         <v>1.5</v>
       </c>
+      <c r="AU9">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1337,6 +1355,9 @@
       </c>
       <c r="AT10">
         <v>2.5</v>
+      </c>
+      <c r="AU10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ABD935-5CC7-44DC-AB6C-4801639D0816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D6C52E-698C-446F-B2D3-8B8D58F32CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Player</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Week 46</t>
+  </si>
+  <si>
+    <t>Week 47</t>
   </si>
 </sst>
 </file>
@@ -546,11 +549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU10"/>
+  <dimension ref="A1:AV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP10" sqref="AP10"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +566,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,8 +708,11 @@
       <c r="AU1" t="s">
         <v>55</v>
       </c>
+      <c r="AV1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -804,7 +810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -854,7 +860,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -906,8 +912,11 @@
       <c r="AS4">
         <v>2</v>
       </c>
+      <c r="AV4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -978,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1072,8 +1081,11 @@
       <c r="AU6">
         <v>5.5</v>
       </c>
+      <c r="AV6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1165,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1236,7 +1248,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1306,8 +1318,11 @@
       <c r="AU9">
         <v>1.5</v>
       </c>
+      <c r="AV9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1358,6 +1373,9 @@
       </c>
       <c r="AU10">
         <v>6</v>
+      </c>
+      <c r="AV10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D6C52E-698C-446F-B2D3-8B8D58F32CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99FFC8D-5E19-4DCB-BCEC-50E89829DCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Player</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Week 47</t>
+  </si>
+  <si>
+    <t>Week 48</t>
   </si>
 </sst>
 </file>
@@ -549,11 +552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV10"/>
+  <dimension ref="A1:AW10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU15" sqref="AU15"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV12" sqref="AV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +569,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,8 +714,11 @@
       <c r="AV1" t="s">
         <v>56</v>
       </c>
+      <c r="AW1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -809,8 +815,11 @@
       <c r="AT2">
         <v>4</v>
       </c>
+      <c r="AW2">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -860,7 +869,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -916,7 +925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -986,8 +995,11 @@
       <c r="AS5">
         <v>5</v>
       </c>
+      <c r="AW5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1084,8 +1096,11 @@
       <c r="AV6">
         <v>10</v>
       </c>
+      <c r="AW6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1164,8 +1179,11 @@
       <c r="AU7">
         <v>5.5</v>
       </c>
+      <c r="AW7">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1247,8 +1265,11 @@
       <c r="AU8">
         <v>4.25</v>
       </c>
+      <c r="AW8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1322,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99FFC8D-5E19-4DCB-BCEC-50E89829DCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804BEC4-BF17-4768-ADEC-1066A17BDA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Player</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Week 48</t>
+  </si>
+  <si>
+    <t>Week 49</t>
   </si>
 </sst>
 </file>
@@ -552,11 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW10"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV12" sqref="AV12"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AX10" sqref="AX10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +572,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,8 +720,11 @@
       <c r="AW1" t="s">
         <v>57</v>
       </c>
+      <c r="AX1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -818,8 +824,11 @@
       <c r="AW2">
         <v>3.5</v>
       </c>
+      <c r="AX2">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -869,7 +878,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -924,8 +933,11 @@
       <c r="AV4">
         <v>4</v>
       </c>
+      <c r="AX4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -998,8 +1010,11 @@
       <c r="AW5">
         <v>10</v>
       </c>
+      <c r="AX5">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1182,8 +1197,11 @@
       <c r="AW7">
         <v>5.5</v>
       </c>
+      <c r="AX7">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1269,7 +1287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1342,8 +1360,11 @@
       <c r="AV9">
         <v>10</v>
       </c>
+      <c r="AX9">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804BEC4-BF17-4768-ADEC-1066A17BDA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C55D32-A962-4F07-98F2-1424C18F652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Player</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Week 49</t>
+  </si>
+  <si>
+    <t>Week 50</t>
   </si>
 </sst>
 </file>
@@ -555,11 +558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX10"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX10" sqref="AX10"/>
+      <selection pane="topRight" activeCell="AY14" sqref="AY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +575,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +726,11 @@
       <c r="AX1" t="s">
         <v>58</v>
       </c>
+      <c r="AY1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -828,7 +834,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -878,7 +884,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AX4">
         <v>5</v>
       </c>
+      <c r="AY4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1114,8 +1123,11 @@
       <c r="AW6">
         <v>5</v>
       </c>
+      <c r="AY6">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1201,7 +1213,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1286,8 +1298,11 @@
       <c r="AW8">
         <v>10</v>
       </c>
+      <c r="AY8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1363,8 +1378,11 @@
       <c r="AX9">
         <v>1.5</v>
       </c>
+      <c r="AY9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1418,6 +1436,9 @@
       </c>
       <c r="AV10">
         <v>5</v>
+      </c>
+      <c r="AY10">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C55D32-A962-4F07-98F2-1424C18F652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5153E466-F65C-49E5-B818-83C78099469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Player</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Week 50</t>
+  </si>
+  <si>
+    <t>Week 51</t>
   </si>
 </sst>
 </file>
@@ -558,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AZ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY14" sqref="AY14"/>
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ10" sqref="AZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +578,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,8 +732,11 @@
       <c r="AY1" t="s">
         <v>59</v>
       </c>
+      <c r="AZ1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -833,8 +839,11 @@
       <c r="AX2">
         <v>3.5</v>
       </c>
+      <c r="AZ2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -884,7 +893,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -946,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1022,8 +1031,11 @@
       <c r="AX5">
         <v>5.5</v>
       </c>
+      <c r="AZ5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1126,8 +1138,11 @@
       <c r="AY6">
         <v>5.5</v>
       </c>
+      <c r="AZ6">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1301,8 +1316,11 @@
       <c r="AY8">
         <v>10</v>
       </c>
+      <c r="AZ8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1381,8 +1399,11 @@
       <c r="AY9">
         <v>3</v>
       </c>
+      <c r="AZ9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5153E466-F65C-49E5-B818-83C78099469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F24D320-3551-4430-8C00-E577830AEFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Player</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>Week 51</t>
+  </si>
+  <si>
+    <t>Week 52</t>
+  </si>
+  <si>
+    <t>Week 53</t>
   </si>
 </sst>
 </file>
@@ -561,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ10" sqref="AZ10"/>
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +584,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -735,8 +741,14 @@
       <c r="AZ1" t="s">
         <v>60</v>
       </c>
+      <c r="BA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -842,8 +854,14 @@
       <c r="AZ2">
         <v>10</v>
       </c>
+      <c r="BA2">
+        <v>3.25</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -893,7 +911,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -955,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1035,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1141,8 +1159,11 @@
       <c r="AZ6">
         <v>5.5</v>
       </c>
+      <c r="BA6">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1228,7 +1249,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1320,7 +1341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1403,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1460,6 +1481,9 @@
       </c>
       <c r="AY10">
         <v>4.5</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F24D320-3551-4430-8C00-E577830AEFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F913AC-A03D-4B30-AF7F-D4CEF7C4AC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Player</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>Week 53</t>
+  </si>
+  <si>
+    <t>Week 54</t>
+  </si>
+  <si>
+    <t>Week 55</t>
   </si>
 </sst>
 </file>
@@ -567,11 +573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB10"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB3" sqref="BB3"/>
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BD4" sqref="BD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +590,7 @@
     <col min="36" max="36" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,8 +753,14 @@
       <c r="BB1" t="s">
         <v>62</v>
       </c>
+      <c r="BC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -860,8 +872,14 @@
       <c r="BB2">
         <v>0</v>
       </c>
+      <c r="BC2">
+        <v>3</v>
+      </c>
+      <c r="BD2">
+        <v>2.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -911,7 +929,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -972,8 +990,11 @@
       <c r="AY4">
         <v>7</v>
       </c>
+      <c r="BC4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1052,8 +1073,14 @@
       <c r="AZ5">
         <v>4</v>
       </c>
+      <c r="BC5">
+        <v>10</v>
+      </c>
+      <c r="BD5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1162,8 +1189,11 @@
       <c r="BA6">
         <v>5.5</v>
       </c>
+      <c r="BC6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1248,8 +1278,11 @@
       <c r="AX7">
         <v>4.5</v>
       </c>
+      <c r="BD7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1341,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1423,8 +1456,11 @@
       <c r="AZ9">
         <v>2</v>
       </c>
+      <c r="BC9">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1484,6 +1520,9 @@
       </c>
       <c r="BA10">
         <v>4</v>
+      </c>
+      <c r="BD10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E2A4E0-8290-4E16-9D15-43041845C315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE944112-D75E-4500-9B17-46D73C22E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="1665" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Player</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Week 56</t>
+  </si>
+  <si>
+    <t>Week 57</t>
   </si>
 </sst>
 </file>
@@ -290,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -322,9 +325,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -632,11 +632,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BE10"/>
+  <dimension ref="A1:BF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE8" sqref="BE8"/>
+      <selection pane="topRight" activeCell="BF15" sqref="BF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
     <col min="56" max="56" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,8 +855,11 @@
       <c r="BE1" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="BF1" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -974,8 +977,11 @@
       <c r="BD2" s="10">
         <v>2.25</v>
       </c>
+      <c r="BF2">
+        <v>2.33</v>
+      </c>
     </row>
-    <row r="3" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1089,8 +1095,11 @@
       <c r="BC4" s="8">
         <v>10</v>
       </c>
+      <c r="BF4">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1175,11 +1184,11 @@
       <c r="BD5" s="8">
         <v>8</v>
       </c>
-      <c r="BE5" s="13">
+      <c r="BE5" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1478,8 +1487,11 @@
       <c r="BE8">
         <v>3</v>
       </c>
+      <c r="BF8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1567,8 +1579,11 @@
       <c r="BE9">
         <v>3</v>
       </c>
+      <c r="BF9">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>

--- a/data/InningCounts.xlsx
+++ b/data/InningCounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE944112-D75E-4500-9B17-46D73C22E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4965BB68-8A26-4C91-9255-BC89AE5AB004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1665" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12165" yWindow="2370" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Player</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>Week 57</t>
+  </si>
+  <si>
+    <t>Week 58</t>
+  </si>
+  <si>
+    <t>Week 59</t>
   </si>
 </sst>
 </file>
@@ -293,38 +299,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -632,856 +624,860 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BF10"/>
+  <dimension ref="A1:BH10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF15" sqref="BF15"/>
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BK3" sqref="BK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.5703125" style="1" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.5703125" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="35" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="BG1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="8">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="G2" s="8">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8">
-        <v>10</v>
-      </c>
-      <c r="K2" s="8">
-        <v>10</v>
-      </c>
-      <c r="N2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="O2" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="R2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="S2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="T2" s="8">
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="R2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="S2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="T2" s="4">
         <v>4</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="5">
         <v>3.33</v>
       </c>
-      <c r="W2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="X2" s="8">
+      <c r="W2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="X2" s="4">
         <v>2</v>
       </c>
-      <c r="Y2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="Z2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AB2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AD2" s="8">
+      <c r="Y2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AD2" s="4">
         <v>4</v>
       </c>
-      <c r="AE2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AG2" s="10">
+      <c r="AE2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AG2" s="4">
         <v>1.75</v>
       </c>
-      <c r="AI2" s="10">
+      <c r="AI2" s="4">
         <v>2.5</v>
       </c>
-      <c r="AK2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AM2" s="8">
+      <c r="AK2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AM2" s="4">
         <v>2</v>
       </c>
-      <c r="AN2" s="8">
+      <c r="AN2" s="4">
         <v>2</v>
       </c>
-      <c r="AO2" s="8">
-        <v>10</v>
-      </c>
-      <c r="AQ2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AS2" s="10">
+      <c r="AO2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AS2" s="4">
         <v>2.67</v>
       </c>
-      <c r="AT2" s="8">
+      <c r="AT2" s="4">
         <v>4</v>
       </c>
-      <c r="AW2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AX2" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AZ2" s="8">
-        <v>10</v>
-      </c>
-      <c r="BA2" s="10">
+      <c r="AW2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>10</v>
+      </c>
+      <c r="BA2" s="4">
         <v>3.25</v>
       </c>
-      <c r="BB2" s="8">
+      <c r="BB2" s="4">
         <v>0</v>
       </c>
-      <c r="BC2" s="8">
+      <c r="BC2" s="4">
         <v>3</v>
       </c>
-      <c r="BD2" s="10">
+      <c r="BD2" s="4">
         <v>2.25</v>
       </c>
       <c r="BF2">
         <v>2.33</v>
       </c>
+      <c r="BG2">
+        <v>3</v>
+      </c>
+      <c r="BH2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="4">
         <v>2.5</v>
       </c>
-      <c r="J3" s="8">
-        <v>10</v>
-      </c>
-      <c r="L3" s="10">
+      <c r="J3" s="4">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4">
         <v>2.5</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="4">
         <v>2.5</v>
       </c>
-      <c r="P3" s="8">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="10">
+      <c r="P3" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="4">
         <v>2.5</v>
       </c>
-      <c r="R3" s="8">
-        <v>10</v>
-      </c>
-      <c r="W3" s="10">
+      <c r="R3" s="4">
+        <v>10</v>
+      </c>
+      <c r="W3" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y3" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="Z3" s="10">
+      <c r="Y3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Z3" s="4">
         <v>2.5</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="4">
         <v>2.5</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="4">
         <v>4.67</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AE3" s="4">
         <v>2.5</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AF3" s="4">
         <v>2.75</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AH3" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="5">
         <v>6.5</v>
       </c>
-      <c r="V4" s="8">
-        <v>10</v>
-      </c>
-      <c r="X4" s="8">
+      <c r="V4" s="4">
+        <v>10</v>
+      </c>
+      <c r="X4" s="4">
         <v>4</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="4">
         <v>4</v>
       </c>
-      <c r="Z4" s="8">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>7</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="8">
+      <c r="Z4" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="4">
         <v>0</v>
       </c>
-      <c r="AE4" s="8">
-        <v>7</v>
-      </c>
-      <c r="AG4" s="8">
+      <c r="AE4" s="4">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="4">
         <v>4</v>
       </c>
-      <c r="AL4" s="8">
-        <v>10</v>
-      </c>
-      <c r="AN4" s="8">
-        <v>7</v>
-      </c>
-      <c r="AO4" s="8">
+      <c r="AL4" s="4">
+        <v>10</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>7</v>
+      </c>
+      <c r="AO4" s="4">
         <v>4</v>
       </c>
-      <c r="AP4" s="8">
+      <c r="AP4" s="4">
         <v>5</v>
       </c>
-      <c r="AQ4" s="8">
-        <v>10</v>
-      </c>
-      <c r="AS4" s="8">
+      <c r="AQ4" s="4">
+        <v>10</v>
+      </c>
+      <c r="AS4" s="4">
         <v>2</v>
       </c>
-      <c r="AV4" s="8">
+      <c r="AV4" s="4">
         <v>4</v>
       </c>
-      <c r="AX4" s="8">
+      <c r="AX4" s="4">
         <v>5</v>
       </c>
-      <c r="AY4" s="8">
-        <v>7</v>
-      </c>
-      <c r="BC4" s="8">
+      <c r="AY4" s="4">
+        <v>7</v>
+      </c>
+      <c r="BC4" s="4">
         <v>10</v>
       </c>
       <c r="BF4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="8">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8">
-        <v>10</v>
-      </c>
-      <c r="J5" s="8">
-        <v>10</v>
-      </c>
-      <c r="K5" s="8">
-        <v>10</v>
-      </c>
-      <c r="L5" s="8">
-        <v>7</v>
-      </c>
-      <c r="N5" s="8">
-        <v>7</v>
-      </c>
-      <c r="P5" s="8">
-        <v>7</v>
-      </c>
-      <c r="S5" s="8">
-        <v>7</v>
-      </c>
-      <c r="T5" s="10">
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4">
+        <v>7</v>
+      </c>
+      <c r="N5" s="4">
+        <v>7</v>
+      </c>
+      <c r="P5" s="4">
+        <v>7</v>
+      </c>
+      <c r="S5" s="4">
+        <v>7</v>
+      </c>
+      <c r="T5" s="4">
         <v>4.5</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="5">
         <v>2</v>
       </c>
-      <c r="Y5" s="8">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>10</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AI5" s="8">
+      <c r="Y5" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AI5" s="4">
         <v>5</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AJ5" s="6">
         <v>4</v>
       </c>
-      <c r="AK5" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AP5" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AR5" s="8">
-        <v>10</v>
-      </c>
-      <c r="AS5" s="8">
+      <c r="AK5" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>10</v>
+      </c>
+      <c r="AS5" s="4">
         <v>5</v>
       </c>
-      <c r="AW5" s="8">
-        <v>10</v>
-      </c>
-      <c r="AX5" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AZ5" s="8">
+      <c r="AW5" s="4">
+        <v>10</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AZ5" s="4">
         <v>4</v>
       </c>
-      <c r="BC5" s="8">
-        <v>10</v>
-      </c>
-      <c r="BD5" s="8">
+      <c r="BC5" s="4">
+        <v>10</v>
+      </c>
+      <c r="BD5" s="4">
         <v>8</v>
       </c>
-      <c r="BE5" s="8">
+      <c r="BE5" s="4">
         <v>4</v>
       </c>
+      <c r="BG5" s="4">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="11">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8">
-        <v>10</v>
-      </c>
-      <c r="J6" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="K6" s="8">
-        <v>10</v>
-      </c>
-      <c r="N6" s="8">
-        <v>10</v>
-      </c>
-      <c r="O6" s="8">
-        <v>7</v>
-      </c>
-      <c r="P6" s="8">
-        <v>10</v>
-      </c>
-      <c r="S6" s="8">
-        <v>10</v>
-      </c>
-      <c r="T6" s="8">
-        <v>7</v>
-      </c>
-      <c r="U6" s="11">
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>10</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10</v>
+      </c>
+      <c r="O6" s="4">
+        <v>7</v>
+      </c>
+      <c r="P6" s="4">
+        <v>10</v>
+      </c>
+      <c r="S6" s="4">
+        <v>10</v>
+      </c>
+      <c r="T6" s="4">
+        <v>7</v>
+      </c>
+      <c r="U6" s="5">
         <v>9</v>
       </c>
-      <c r="V6" s="8">
-        <v>7</v>
-      </c>
-      <c r="W6" s="8">
-        <v>7</v>
-      </c>
-      <c r="X6" s="8">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>7</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>10</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>7</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>10</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>7</v>
-      </c>
-      <c r="AG6" s="8">
+      <c r="V6" s="4">
+        <v>7</v>
+      </c>
+      <c r="W6" s="4">
+        <v>7</v>
+      </c>
+      <c r="X6" s="4">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="4">
         <v>5</v>
       </c>
-      <c r="AH6" s="8">
-        <v>10</v>
-      </c>
-      <c r="AJ6" s="12">
+      <c r="AH6" s="4">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="6">
         <v>4</v>
       </c>
-      <c r="AK6" s="8">
+      <c r="AK6" s="4">
         <v>6</v>
       </c>
-      <c r="AL6" s="8">
-        <v>10</v>
-      </c>
-      <c r="AM6" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AN6" s="8">
-        <v>10</v>
-      </c>
-      <c r="AQ6" s="8">
+      <c r="AL6" s="4">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>10</v>
+      </c>
+      <c r="AQ6" s="4">
         <v>5</v>
       </c>
-      <c r="AS6" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AT6" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AU6" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AV6" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW6" s="8">
+      <c r="AS6" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>10</v>
+      </c>
+      <c r="AW6" s="4">
         <v>5</v>
       </c>
-      <c r="AY6" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AZ6" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="BA6" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="BC6" s="8">
-        <v>10</v>
+      <c r="AY6" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="BC6" s="4">
+        <v>10</v>
+      </c>
+      <c r="BG6">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="I7" s="8">
-        <v>10</v>
-      </c>
-      <c r="J7" s="8">
-        <v>10</v>
-      </c>
-      <c r="K7" s="8">
-        <v>10</v>
-      </c>
-      <c r="L7" s="8">
-        <v>10</v>
-      </c>
-      <c r="M7" s="8">
-        <v>7</v>
-      </c>
-      <c r="N7" s="8">
-        <v>10</v>
-      </c>
-      <c r="O7" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="8">
+      <c r="H7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
+        <v>10</v>
+      </c>
+      <c r="K7" s="4">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4">
+        <v>10</v>
+      </c>
+      <c r="M7" s="4">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10</v>
+      </c>
+      <c r="O7" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="4">
         <v>3</v>
       </c>
-      <c r="R7" s="8">
-        <v>10</v>
-      </c>
-      <c r="V7" s="10">
+      <c r="R7" s="4">
+        <v>10</v>
+      </c>
+      <c r="V7" s="4">
         <v>6.5</v>
       </c>
-      <c r="W7" s="8">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="10">
+      <c r="W7" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="4">
         <v>4.5</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="4">
         <v>6.5</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="4">
         <v>5</v>
       </c>
-      <c r="AF7" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AH7" s="8">
+      <c r="AF7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AH7" s="4">
         <v>9</v>
       </c>
-      <c r="AI7" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AM7" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AO7" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AQ7" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AR7" s="8">
+      <c r="AI7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AR7" s="4">
         <v>2</v>
       </c>
-      <c r="AT7" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AU7" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AW7" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" s="10">
+      <c r="AT7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" s="4">
         <v>4.5</v>
       </c>
-      <c r="BD7" s="8">
+      <c r="BD7" s="4">
         <v>10</v>
       </c>
       <c r="BE7">
         <v>1</v>
       </c>
+      <c r="BG7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="11">
-        <v>10</v>
-      </c>
-      <c r="J8" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="K8" s="8">
-        <v>10</v>
-      </c>
-      <c r="L8" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="M8" s="10">
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M8" s="4">
         <v>2.75</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="4">
         <v>3.33</v>
       </c>
-      <c r="P8" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="Q8" s="10">
+      <c r="P8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" s="4">
         <v>2.25</v>
       </c>
-      <c r="R8" s="8">
-        <v>10</v>
-      </c>
-      <c r="S8" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="T8" s="8">
+      <c r="R8" s="4">
+        <v>10</v>
+      </c>
+      <c r="S8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="T8" s="4">
         <v>2</v>
       </c>
-      <c r="V8" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="W8" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="X8" s="8">
+      <c r="V8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="W8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="X8" s="4">
         <v>2</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="4">
         <v>3.67</v>
       </c>
-      <c r="AC8" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AD8" s="8">
+      <c r="AC8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AD8" s="4">
         <v>0</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="4">
         <v>2</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="4">
         <v>5</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AJ8" s="6">
         <v>3</v>
       </c>
-      <c r="AL8" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AM8" s="10">
+      <c r="AL8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AM8" s="4">
         <v>1.67</v>
       </c>
-      <c r="AN8" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AP8" s="10">
+      <c r="AN8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AP8" s="4">
         <v>2.75</v>
       </c>
-      <c r="AR8" s="8">
+      <c r="AR8" s="4">
         <v>3</v>
       </c>
-      <c r="AU8" s="10">
+      <c r="AU8" s="4">
         <v>4.25</v>
       </c>
-      <c r="AW8" s="8">
-        <v>10</v>
-      </c>
-      <c r="AY8" s="8">
-        <v>10</v>
-      </c>
-      <c r="AZ8" s="8">
+      <c r="AW8" s="4">
+        <v>10</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>10</v>
+      </c>
+      <c r="AZ8" s="4">
         <v>2</v>
       </c>
       <c r="BE8">
@@ -1491,89 +1487,89 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="U9" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="V9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="X9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>10</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AB9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AC9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AD9" s="10">
+      <c r="U9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="X9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AD9" s="4">
         <v>2.5</v>
       </c>
-      <c r="AE9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AG9" s="8">
-        <v>10</v>
-      </c>
-      <c r="AH9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AI9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AJ9" s="12">
+      <c r="AE9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AJ9" s="6">
         <v>2</v>
       </c>
-      <c r="AL9" s="8">
+      <c r="AL9" s="4">
         <v>1</v>
       </c>
-      <c r="AM9" s="8">
+      <c r="AM9" s="4">
         <v>4</v>
       </c>
-      <c r="AN9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AO9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AP9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AQ9" s="8">
-        <v>10</v>
-      </c>
-      <c r="AR9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AT9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AU9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AV9" s="8">
-        <v>10</v>
-      </c>
-      <c r="AX9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="AY9" s="8">
+      <c r="AN9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AX9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AY9" s="4">
         <v>3</v>
       </c>
-      <c r="AZ9" s="8">
+      <c r="AZ9" s="4">
         <v>2</v>
       </c>
-      <c r="BC9" s="10">
+      <c r="BC9" s="4">
         <v>1.5</v>
       </c>
       <c r="BE9">
@@ -1582,69 +1578,75 @@
       <c r="BF9">
         <v>1.5</v>
       </c>
+      <c r="BG9">
+        <v>1.5</v>
+      </c>
+      <c r="BH9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="11">
-        <v>10</v>
-      </c>
-      <c r="G10" s="8">
-        <v>10</v>
-      </c>
-      <c r="H10" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="I10" s="8">
-        <v>10</v>
-      </c>
-      <c r="L10" s="8">
-        <v>10</v>
-      </c>
-      <c r="M10" s="8">
-        <v>10</v>
-      </c>
-      <c r="O10" s="8">
-        <v>10</v>
-      </c>
-      <c r="P10" s="8">
-        <v>7</v>
-      </c>
-      <c r="S10" s="8">
-        <v>7</v>
-      </c>
-      <c r="AK10" s="10">
+      <c r="F10" s="5">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4">
+        <v>10</v>
+      </c>
+      <c r="M10" s="4">
+        <v>10</v>
+      </c>
+      <c r="O10" s="4">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4">
+        <v>7</v>
+      </c>
+      <c r="S10" s="4">
+        <v>7</v>
+      </c>
+      <c r="AK10" s="4">
         <v>6.5</v>
       </c>
-      <c r="AL10" s="8">
+      <c r="AL10" s="4">
         <v>6</v>
       </c>
-      <c r="AO10" s="8">
+      <c r="AO10" s="4">
         <v>6</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="AP10" s="4">
         <v>4.5</v>
       </c>
-      <c r="AS10" s="8">
-        <v>10</v>
-      </c>
-      <c r="AT10" s="10">
+      <c r="AS10" s="4">
+        <v>10</v>
+      </c>
+      <c r="AT10" s="4">
         <v>2.5</v>
       </c>
-      <c r="AU10" s="8">
+      <c r="AU10" s="4">
         <v>6</v>
       </c>
-      <c r="AV10" s="8">
+      <c r="AV10" s="4">
         <v>5</v>
       </c>
-      <c r="AY10" s="10">
+      <c r="AY10" s="4">
         <v>4.5</v>
       </c>
-      <c r="BA10" s="8">
+      <c r="BA10" s="4">
         <v>4</v>
       </c>
-      <c r="BD10" s="8">
+      <c r="BD10" s="4">
         <v>10</v>
       </c>
       <c r="BE10">
@@ -1654,5 +1656,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>